--- a/TOR330 Data/4. TOR330 Timetable Data/TOR330_aid_station_for_each_year_cut_offs_df.xlsx
+++ b/TOR330 Data/4. TOR330 Timetable Data/TOR330_aid_station_for_each_year_cut_offs_df.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="26">
-  <si>
-    <t>Checkpoint</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="45">
+  <si>
+    <t>Aid Station</t>
   </si>
   <si>
     <t>Year</t>
@@ -25,7 +25,10 @@
     <t>Wave</t>
   </si>
   <si>
-    <t>Cut Off Date</t>
+    <t xml:space="preserve"> Cut Off Date</t>
+  </si>
+  <si>
+    <t>Stage</t>
   </si>
   <si>
     <t>Start</t>
@@ -88,10 +91,64 @@
     <t>FINISH</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>Wave1</t>
   </si>
   <si>
     <t>Wave2</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Time Spent in Valgrisenche</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Time Spent in Cogne</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Time Spent in Donnas</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Time Spent in Gressoney</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Time Spent in Valtournenche</t>
+  </si>
+  <si>
+    <t>Stage 6</t>
+  </si>
+  <si>
+    <t>Time Spent in Ollomont</t>
+  </si>
+  <si>
+    <t>Stage 7</t>
   </si>
 </sst>
 </file>
@@ -453,13 +510,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,2805 +529,3408 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2023</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45179.41666666666</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2024</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45543.41666666666</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2022</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>44815.41666666666</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2019</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>43716.41666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2021</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>44451.41666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45179.64583333334</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2024</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45543.64583333334</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>2022</v>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>44815.64583333334</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2019</v>
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>43716.64583333334</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>2021</v>
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>44451.64583333334</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>2023</v>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45180.20833333334</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>2024</v>
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45544.20833333334</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>2022</v>
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>44816.20833333334</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>2019</v>
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>43717.20833333334</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>2021</v>
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>44452.20833333334</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>2023</v>
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45180.29166666666</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>2024</v>
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45544.29166666666</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>2022</v>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>44816.29166666666</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>2019</v>
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>43717.29166666666</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>2021</v>
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>44452.29166666666</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>2023</v>
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45180.8125</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>2024</v>
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45544.8125</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>2022</v>
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>44816.8125</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>2019</v>
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>43717.8125</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>2021</v>
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>44452.8125</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>2023</v>
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45181.16666666666</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>2024</v>
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45545.16666666666</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>2022</v>
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>44817.16666666666</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>2019</v>
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>43718.16666666666</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>2021</v>
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>44453.16666666666</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>2023</v>
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45181.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>2024</v>
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45545.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>2022</v>
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>44817.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>2019</v>
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>43718.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36">
-        <v>2021</v>
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>44453.25</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37">
-        <v>2023</v>
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45182</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>2024</v>
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45546</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39">
-        <v>2022</v>
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>44818</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40">
-        <v>2019</v>
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>43719</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41">
-        <v>2021</v>
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>44454</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42">
-        <v>2023</v>
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45182.08333333334</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43">
-        <v>2024</v>
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45546.08333333334</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44">
-        <v>2022</v>
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>44818.08333333334</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45">
-        <v>2019</v>
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>43719.08333333334</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>44454.08333333334</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47">
-        <v>2023</v>
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45182.54166666666</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48">
-        <v>2024</v>
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45546.54166666666</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49">
-        <v>2022</v>
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>44818.54166666666</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50">
-        <v>2019</v>
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>43719.54166666666</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51">
-        <v>2021</v>
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>44454.54166666666</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52">
-        <v>2023</v>
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45182.8125</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53">
-        <v>2024</v>
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45546.8125</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54">
-        <v>2022</v>
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>44818.8125</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55">
-        <v>2019</v>
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>43719.8125</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56">
-        <v>2021</v>
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>44454.8125</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57">
-        <v>2023</v>
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45182.95833333334</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58">
-        <v>2024</v>
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45546.95833333334</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59">
-        <v>2022</v>
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>44818.95833333334</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60">
-        <v>2019</v>
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>43719.95833333334</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61">
-        <v>2021</v>
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>44454.95833333334</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62">
-        <v>2023</v>
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45183.04166666666</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63">
-        <v>2024</v>
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45547.04166666666</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64">
-        <v>2022</v>
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>44819.04166666666</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65">
-        <v>2019</v>
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>43720.04166666666</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>44455.04166666666</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67">
-        <v>2023</v>
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45183.54166666666</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68">
-        <v>2024</v>
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45547.54166666666</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69">
-        <v>2022</v>
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>44819.54166666666</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70">
-        <v>2019</v>
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>43720.54166666666</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71">
-        <v>2021</v>
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>44455.54166666666</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72">
-        <v>2023</v>
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45183.79166666666</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73">
-        <v>2024</v>
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45547.79166666666</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74">
-        <v>2022</v>
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>44819.79166666666</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75">
-        <v>2019</v>
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>43720.79166666666</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76">
-        <v>2021</v>
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>44455.79166666666</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77">
-        <v>2023</v>
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45183.875</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78">
-        <v>2024</v>
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45547.875</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79">
-        <v>2022</v>
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>44819.875</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80">
-        <v>2019</v>
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>43720.875</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81">
-        <v>2021</v>
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>44455.875</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82">
-        <v>2023</v>
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45184.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83">
-        <v>2024</v>
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45548.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84">
-        <v>2022</v>
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>44820.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85">
-        <v>2019</v>
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>43721.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86">
-        <v>2021</v>
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>44456.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87">
-        <v>2023</v>
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45184.70833333334</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88">
-        <v>2024</v>
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45548.70833333334</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89">
-        <v>2022</v>
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>44820.70833333334</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90">
-        <v>2019</v>
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>43721.70833333334</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91">
-        <v>2021</v>
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>44456.70833333334</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92">
-        <v>2023</v>
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45184.79166666666</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93">
-        <v>2024</v>
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45548.79166666666</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94">
-        <v>2022</v>
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>44820.79166666666</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95">
-        <v>2019</v>
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>43721.79166666666</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96">
-        <v>2021</v>
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>44456.79166666666</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97">
-        <v>2023</v>
+        <v>24</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45185.66666666666</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98">
-        <v>2024</v>
+        <v>24</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45549.66666666666</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99">
-        <v>2022</v>
+        <v>24</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>44821.66666666666</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100">
-        <v>2019</v>
+        <v>24</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>43722.66666666666</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101">
-        <v>2021</v>
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>44457.66666666666</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102">
-        <v>2023</v>
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45179.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103">
-        <v>2024</v>
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45543.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104">
-        <v>2022</v>
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>44815.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105">
-        <v>2019</v>
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>43716.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106">
-        <v>2021</v>
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
       </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>44451.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45179.72916666666</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108">
-        <v>2024</v>
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45543.72916666666</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109">
-        <v>2022</v>
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>44815.72916666666</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110">
-        <v>2019</v>
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>43716.72916666666</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111">
-        <v>2021</v>
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>44451.72916666666</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112">
-        <v>2023</v>
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45180.29166666666</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113">
-        <v>2024</v>
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>26</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45544.29166666666</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114">
-        <v>2022</v>
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>44816.29166666666</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115">
-        <v>2019</v>
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>43717.29166666666</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116">
-        <v>2021</v>
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>44452.29166666666</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117">
-        <v>2023</v>
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45180.375</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118">
-        <v>2024</v>
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45544.375</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119">
-        <v>2022</v>
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>44816.375</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120">
-        <v>2019</v>
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>43717.375</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121">
-        <v>2021</v>
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>44452.375</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122">
-        <v>2023</v>
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45180.89583333334</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123">
-        <v>2024</v>
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>26</v>
       </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45544.89583333334</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124">
-        <v>2022</v>
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>44816.89583333334</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125">
-        <v>2019</v>
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>43717.89583333334</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126">
-        <v>2021</v>
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>29</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>44452.89583333334</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127">
-        <v>2023</v>
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45181.25</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128">
-        <v>2024</v>
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45545.25</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129">
-        <v>2022</v>
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>44817.25</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130">
-        <v>2019</v>
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>43718.25</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131">
-        <v>2021</v>
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>44453.25</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132">
-        <v>2023</v>
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45181.33333333334</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133">
-        <v>2024</v>
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45545.33333333334</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>10</v>
-      </c>
-      <c r="B134">
-        <v>2022</v>
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>44817.33333333334</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135">
-        <v>2019</v>
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>43718.33333333334</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136">
-        <v>2021</v>
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
       </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>44453.33333333334</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137">
-        <v>2023</v>
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45182.08333333334</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>11</v>
-      </c>
-      <c r="B138">
-        <v>2024</v>
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>26</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45546.08333333334</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139">
-        <v>2022</v>
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>44818.08333333334</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140">
-        <v>2019</v>
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>43719.08333333334</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141">
-        <v>2021</v>
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>44454.08333333334</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142">
-        <v>2023</v>
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45182.16666666666</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143">
-        <v>2024</v>
+        <v>13</v>
+      </c>
+      <c r="B143" t="s">
+        <v>26</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45546.16666666666</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144">
-        <v>2022</v>
+        <v>13</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>44818.16666666666</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145">
-        <v>2019</v>
+        <v>13</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>43719.16666666666</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146">
-        <v>2021</v>
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>29</v>
       </c>
       <c r="C146" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>44454.16666666666</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147">
-        <v>2023</v>
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45182.625</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148">
-        <v>2024</v>
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45546.625</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149">
-        <v>2022</v>
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>27</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>44818.625</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>13</v>
-      </c>
-      <c r="B150">
-        <v>2019</v>
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>43719.625</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151">
-        <v>2021</v>
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>29</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>44454.625</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152">
-        <v>2023</v>
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45182.89583333334</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153">
-        <v>2024</v>
+        <v>15</v>
+      </c>
+      <c r="B153" t="s">
+        <v>26</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45546.89583333334</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154">
-        <v>2022</v>
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>27</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>44818.89583333334</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155">
-        <v>2019</v>
+        <v>15</v>
+      </c>
+      <c r="B155" t="s">
+        <v>28</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>43719.89583333334</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156">
-        <v>2021</v>
+        <v>15</v>
+      </c>
+      <c r="B156" t="s">
+        <v>29</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>44454.89583333334</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157">
-        <v>2023</v>
+        <v>16</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45183.04166666666</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158">
-        <v>2024</v>
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
+        <v>26</v>
       </c>
       <c r="C158" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45547.04166666666</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159">
-        <v>2022</v>
+        <v>16</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>44819.04166666666</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>15</v>
-      </c>
-      <c r="B160">
-        <v>2019</v>
+        <v>16</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>43720.04166666666</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161">
-        <v>2021</v>
+        <v>16</v>
+      </c>
+      <c r="B161" t="s">
+        <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>44455.04166666666</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>16</v>
-      </c>
-      <c r="B162">
-        <v>2023</v>
+        <v>17</v>
+      </c>
+      <c r="B162" t="s">
+        <v>25</v>
       </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45183.125</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>16</v>
-      </c>
-      <c r="B163">
-        <v>2024</v>
+        <v>17</v>
+      </c>
+      <c r="B163" t="s">
+        <v>26</v>
       </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45547.125</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164">
-        <v>2022</v>
+        <v>17</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>44819.125</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>16</v>
-      </c>
-      <c r="B165">
-        <v>2019</v>
+        <v>17</v>
+      </c>
+      <c r="B165" t="s">
+        <v>28</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>43720.125</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>16</v>
-      </c>
-      <c r="B166">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="B166" t="s">
+        <v>29</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>44455.125</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>17</v>
-      </c>
-      <c r="B167">
-        <v>2023</v>
+        <v>18</v>
+      </c>
+      <c r="B167" t="s">
+        <v>25</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45183.625</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>17</v>
-      </c>
-      <c r="B168">
-        <v>2024</v>
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45547.625</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>17</v>
-      </c>
-      <c r="B169">
-        <v>2022</v>
+        <v>18</v>
+      </c>
+      <c r="B169" t="s">
+        <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>44819.625</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>17</v>
-      </c>
-      <c r="B170">
-        <v>2019</v>
+        <v>18</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>43720.625</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>17</v>
-      </c>
-      <c r="B171">
-        <v>2021</v>
+        <v>18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>29</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>44455.625</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>18</v>
-      </c>
-      <c r="B172">
-        <v>2023</v>
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45183.875</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>18</v>
-      </c>
-      <c r="B173">
-        <v>2024</v>
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>26</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45547.875</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>18</v>
-      </c>
-      <c r="B174">
-        <v>2022</v>
+        <v>19</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>44819.875</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>18</v>
-      </c>
-      <c r="B175">
-        <v>2019</v>
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>43720.875</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>18</v>
-      </c>
-      <c r="B176">
-        <v>2021</v>
+        <v>19</v>
+      </c>
+      <c r="B176" t="s">
+        <v>29</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>44455.875</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B177">
-        <v>2023</v>
+        <v>20</v>
+      </c>
+      <c r="B177" t="s">
+        <v>25</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
         <v>45183.95833333334</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>19</v>
-      </c>
-      <c r="B178">
-        <v>2024</v>
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>26</v>
       </c>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>45547.95833333334</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>19</v>
-      </c>
-      <c r="B179">
-        <v>2022</v>
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>27</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
         <v>44819.95833333334</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>19</v>
-      </c>
-      <c r="B180">
-        <v>2019</v>
+        <v>20</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
       </c>
       <c r="C180" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D180" s="2">
         <v>43720.95833333334</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>19</v>
-      </c>
-      <c r="B181">
-        <v>2021</v>
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>29</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2">
         <v>44455.95833333334</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>20</v>
-      </c>
-      <c r="B182">
-        <v>2023</v>
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>25</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D182" s="2">
         <v>45184.58333333334</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>20</v>
-      </c>
-      <c r="B183">
-        <v>2024</v>
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>26</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2">
         <v>45548.58333333334</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>20</v>
-      </c>
-      <c r="B184">
-        <v>2022</v>
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>27</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D184" s="2">
         <v>44820.58333333334</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>20</v>
-      </c>
-      <c r="B185">
-        <v>2019</v>
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>28</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D185" s="2">
         <v>43721.58333333334</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>20</v>
-      </c>
-      <c r="B186">
-        <v>2021</v>
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D186" s="2">
         <v>44456.58333333334</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>21</v>
-      </c>
-      <c r="B187">
-        <v>2023</v>
+        <v>22</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D187" s="2">
         <v>45184.79166666666</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>21</v>
-      </c>
-      <c r="B188">
-        <v>2024</v>
+        <v>22</v>
+      </c>
+      <c r="B188" t="s">
+        <v>26</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2">
         <v>45548.79166666666</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>21</v>
-      </c>
-      <c r="B189">
-        <v>2022</v>
+        <v>22</v>
+      </c>
+      <c r="B189" t="s">
+        <v>27</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>44820.79166666666</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>21</v>
-      </c>
-      <c r="B190">
-        <v>2019</v>
+        <v>22</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2">
         <v>43721.79166666666</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>21</v>
-      </c>
-      <c r="B191">
-        <v>2021</v>
+        <v>22</v>
+      </c>
+      <c r="B191" t="s">
+        <v>29</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D191" s="2">
         <v>44456.79166666666</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>22</v>
-      </c>
-      <c r="B192">
-        <v>2023</v>
+        <v>23</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D192" s="2">
         <v>45184.875</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>22</v>
-      </c>
-      <c r="B193">
-        <v>2024</v>
+        <v>23</v>
+      </c>
+      <c r="B193" t="s">
+        <v>26</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
         <v>45548.875</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>22</v>
-      </c>
-      <c r="B194">
-        <v>2022</v>
+        <v>23</v>
+      </c>
+      <c r="B194" t="s">
+        <v>27</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D194" s="2">
         <v>44820.875</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>22</v>
-      </c>
-      <c r="B195">
-        <v>2019</v>
+        <v>23</v>
+      </c>
+      <c r="B195" t="s">
+        <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D195" s="2">
         <v>43721.875</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>22</v>
-      </c>
-      <c r="B196">
-        <v>2021</v>
+        <v>23</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D196" s="2">
         <v>44456.875</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>23</v>
-      </c>
-      <c r="B197">
-        <v>2023</v>
+        <v>24</v>
+      </c>
+      <c r="B197" t="s">
+        <v>25</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2">
         <v>45185.75</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>23</v>
-      </c>
-      <c r="B198">
-        <v>2024</v>
+        <v>24</v>
+      </c>
+      <c r="B198" t="s">
+        <v>26</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2">
         <v>45549.75</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>23</v>
-      </c>
-      <c r="B199">
-        <v>2022</v>
+        <v>24</v>
+      </c>
+      <c r="B199" t="s">
+        <v>27</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2">
         <v>44821.75</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>23</v>
-      </c>
-      <c r="B200">
-        <v>2019</v>
+        <v>24</v>
+      </c>
+      <c r="B200" t="s">
+        <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D200" s="2">
         <v>43722.75</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>23</v>
-      </c>
-      <c r="B201">
-        <v>2021</v>
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>29</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2">
         <v>44457.75</v>
+      </c>
+      <c r="E201" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/TOR330 Data/4. TOR330 Timetable Data/TOR330_aid_station_for_each_year_cut_offs_df.xlsx
+++ b/TOR330 Data/4. TOR330 Timetable Data/TOR330_aid_station_for_each_year_cut_offs_df.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="45">
   <si>
-    <t>Aid Station</t>
+    <t>Checkpoint</t>
   </si>
   <si>
     <t>Year</t>
@@ -25,7 +25,7 @@
     <t>Wave</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cut Off Date</t>
+    <t>Cut Off Date</t>
   </si>
   <si>
     <t>Stage</t>
